--- a/汽柴煤油2.0/data_input/石脑油价格.xlsx
+++ b/汽柴煤油2.0/data_input/石脑油价格.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3839"/>
+  <dimension ref="A1:D3841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53227,11 +53227,39 @@
       <c r="A3839" s="2" t="n">
         <v>45954</v>
       </c>
-      <c r="B3839" t="inlineStr"/>
+      <c r="B3839" t="n">
+        <v>581.13</v>
+      </c>
       <c r="C3839" t="n">
         <v>65.94</v>
       </c>
-      <c r="D3839" t="inlineStr"/>
+      <c r="D3839" t="n">
+        <v>97.7898</v>
+      </c>
+    </row>
+    <row r="3840">
+      <c r="A3840" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3840" t="n">
+        <v>577.63</v>
+      </c>
+      <c r="C3840" t="n">
+        <v>65.62</v>
+      </c>
+      <c r="D3840" t="n">
+        <v>96.6354</v>
+      </c>
+    </row>
+    <row r="3841">
+      <c r="A3841" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3841" t="inlineStr"/>
+      <c r="C3841" t="n">
+        <v>64.20999999999999</v>
+      </c>
+      <c r="D3841" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
